--- a/medicine/Pharmacie/Tétrazépam/Tétrazépam.xlsx
+++ b/medicine/Pharmacie/Tétrazépam/Tétrazépam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9traz%C3%A9pam</t>
+          <t>Tétrazépam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tétrazépam est une benzodiazépine prescrit en général pour son effet myorelaxant. Il est utilisé pour traiter la contracture musculaire douloureuse en rhumatologie.
-Le tétrazépam a été retiré du marché européen en juillet 2013 en raison d'accidents cutanés (syndrome de Stevens-Johnson)[2],[3].
+Le tétrazépam a été retiré du marché européen en juillet 2013 en raison d'accidents cutanés (syndrome de Stevens-Johnson),.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9traz%C3%A9pam</t>
+          <t>Tétrazépam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>troubles de la mémoire (trous de mémoire), qui peuvent survenir aux doses thérapeutiques, le risque augmentant proportionnellement à la dose,
 troubles du comportement, modifications de la conscience, irritabilité, agressivité, agitation,
